--- a/CA_data/LC/Epct1/2021-22/06+COLUSA.xlsx
+++ b/CA_data/LC/Epct1/2021-22/06+COLUSA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t>Colusa CountyLanguage Group Data - Countywidefor  2021 - 22</t>
   </si>
@@ -52,12 +52,12 @@
     <t>Gujarati</t>
   </si>
   <si>
+    <t>Filipino (Pilipino or Tagalog)</t>
+  </si>
+  <si>
     <t>Hmong</t>
   </si>
   <si>
-    <t>Filipino (Pilipino or Tagalog)</t>
-  </si>
-  <si>
     <t>Mien (Yao)</t>
   </si>
   <si>
@@ -70,6 +70,18 @@
     <t>Hindi</t>
   </si>
   <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>Urdu</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
     <t>Lao</t>
   </si>
   <si>
@@ -83,15 +95,6 @@
   </si>
   <si>
     <t>Cebuano (Visayan)</t>
-  </si>
-  <si>
-    <t>Portuguese</t>
-  </si>
-  <si>
-    <t>Russian</t>
-  </si>
-  <si>
-    <t>Urdu</t>
   </si>
   <si>
     <t>Colusa County Total</t>
@@ -563,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,19 +600,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -617,19 +620,19 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -637,16 +640,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -654,16 +657,16 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -671,47 +674,47 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -719,16 +722,16 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -736,16 +739,16 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -753,13 +756,13 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -767,13 +770,13 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -781,7 +784,7 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -789,7 +792,7 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -797,7 +800,7 @@
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -805,7 +808,7 @@
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -813,7 +816,7 @@
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -821,7 +824,7 @@
         <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -829,38 +832,26 @@
         <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" t="s">
-        <v>50</v>
-      </c>
       <c r="F22" t="s">
         <v>61</v>
       </c>
@@ -883,6 +874,26 @@
       </c>
       <c r="F23" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
